--- a/adm/2021-22/ansøgere.xlsx
+++ b/adm/2021-22/ansøgere.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrh630/repositories/PoP.git/adm/2021-22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E20085-91C3-7748-AF13-CC0293249F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B44B5F-997A-7847-91C1-9900BC128512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17320" yWindow="520" windowWidth="20540" windowHeight="23500" xr2:uid="{3BFBAEF2-931D-AF4B-8AE9-79D6A0476819}"/>
+    <workbookView xWindow="1640" yWindow="5200" windowWidth="30640" windowHeight="12860" xr2:uid="{3BFBAEF2-931D-AF4B-8AE9-79D6A0476819}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -344,14 +344,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -667,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC68B30-CBBE-DD4C-893D-0FD29AA070E8}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -731,12 +730,15 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="F2">
+        <v>1</v>
+      </c>
       <c r="G2">
         <f>D2*F2</f>
         <v>0</v>
@@ -750,14 +752,21 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G14" si="0">D3*F3</f>
-        <v>0</v>
+        <f>D3*F3</f>
+        <v>1</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
@@ -768,17 +777,17 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f>D4*F4</f>
         <v>0</v>
       </c>
       <c r="K4" t="s">
@@ -790,21 +799,18 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5">
-        <v>1</v>
-      </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>D5*F5</f>
+        <v>0</v>
       </c>
       <c r="K5" t="s">
         <v>13</v>
@@ -815,17 +821,17 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2"/>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f>D6*F6</f>
         <v>0</v>
       </c>
       <c r="K6" t="s">
@@ -837,17 +843,17 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f>D7*F7</f>
         <v>0</v>
       </c>
       <c r="K7" t="s">
@@ -859,17 +865,17 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="C8" s="1"/>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f>D8*F8</f>
         <v>0</v>
       </c>
       <c r="K8" t="s">
@@ -881,17 +887,16 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>21</v>
+      </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f>D9*F9</f>
         <v>0</v>
       </c>
       <c r="K9" t="s">
@@ -903,17 +908,17 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f>D10*F10</f>
         <v>0</v>
       </c>
       <c r="K10" t="s">
@@ -925,20 +930,20 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f>D11*F11</f>
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -946,21 +951,35 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44506.430555555555</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D12*E12</f>
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12">
+        <v>2020</v>
       </c>
       <c r="K12" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -968,45 +987,93 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44506.416666666664</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" t="s">
-        <v>55</v>
+        <f>D13*E13</f>
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13">
+        <v>2019</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
+      <c r="M13" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44506.402777777781</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
       <c r="G14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D14*E14</f>
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14">
+        <v>2019</v>
+      </c>
+      <c r="K14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C15" s="3">
-        <v>44506.430555555555</v>
+        <v>44506.388888888891</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
@@ -1017,7 +1084,7 @@
         <v>49</v>
       </c>
       <c r="I15">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="K15" t="s">
         <v>44</v>
@@ -1028,82 +1095,87 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="C16" s="3">
+        <v>44506.472222222219</v>
+      </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
       </c>
       <c r="G16">
         <f>D16*E16</f>
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="I16">
-        <v>2017</v>
-      </c>
-      <c r="K16" t="s">
-        <v>56</v>
+        <v>2020</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
+        <v>73</v>
+      </c>
+      <c r="C17" s="3">
+        <v>44506.486111111109</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
       </c>
       <c r="G17">
         <f>D17*E17</f>
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I17">
         <v>2020</v>
       </c>
-      <c r="K17" t="s">
-        <v>45</v>
-      </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C18" s="3">
-        <v>44506.416666666664</v>
+        <v>44506.375</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
@@ -1111,16 +1183,16 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -1136,6 +1208,9 @@
       <c r="E19">
         <v>1</v>
       </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
       <c r="G19">
         <f>D19*E19</f>
         <v>0</v>
@@ -1155,65 +1230,53 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C20" s="3">
-        <v>44506.402777777781</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
+        <v>44506.444444444445</v>
       </c>
       <c r="E20">
         <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
       </c>
       <c r="G20">
         <f>D20*E20</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="s">
         <v>49</v>
       </c>
       <c r="I20">
-        <v>2019</v>
-      </c>
-      <c r="K20" t="s">
-        <v>44</v>
+        <v>2020</v>
       </c>
       <c r="L20">
         <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="3">
-        <v>44506.388888888891</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
       </c>
       <c r="G21">
-        <f>D21*E21</f>
-        <v>1</v>
-      </c>
-      <c r="H21" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21">
-        <v>2019</v>
+        <f>D21*F21</f>
+        <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -1221,69 +1284,43 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22">
+        <v>23</v>
+      </c>
+      <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <f>D22*E22</f>
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22">
-        <v>2020</v>
+        <f>D22*F22</f>
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>13</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
-      <c r="M22" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="3">
-        <v>44506.444444444445</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
       <c r="G23">
-        <f>D23*E23</f>
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
-        <v>49</v>
-      </c>
-      <c r="I23">
-        <v>2020</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23" t="s">
-        <v>59</v>
+        <f>D23*F23</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C24" s="1"/>
       <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
@@ -1294,53 +1331,65 @@
         <v>49</v>
       </c>
       <c r="I24">
-        <v>2020</v>
+        <v>2017</v>
+      </c>
+      <c r="K24" t="s">
+        <v>56</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="3">
-        <v>44506.472222222219</v>
+        <v>83</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
       </c>
       <c r="G25">
         <f>D25*E25</f>
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="I25">
         <v>2020</v>
       </c>
+      <c r="K25" t="s">
+        <v>45</v>
+      </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
@@ -1348,30 +1397,30 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I26">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="3">
-        <v>44506.486111111109</v>
+        <v>76</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
       </c>
       <c r="G27">
         <f>D27*E27</f>
@@ -1387,17 +1436,20 @@
         <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
@@ -1411,95 +1463,92 @@
         <v>2019</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="3">
-        <v>44506.375</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
       </c>
       <c r="G29">
         <f>D29*E29</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I29">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D32">
-        <f>SUM(D2:D31)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <f>SUM(D1:D29)</f>
         <v>7</v>
       </c>
-      <c r="E32">
-        <f>SUM(E2:E31)</f>
+      <c r="E30">
+        <f>SUM(E1:E29)</f>
         <v>9</v>
       </c>
-      <c r="F32">
-        <f>SUM(F2:F31)</f>
-        <v>10</v>
-      </c>
-      <c r="G32">
-        <f>SUM(G2:G31)</f>
+      <c r="F30">
+        <f>SUM(F1:F29)</f>
+        <v>17</v>
+      </c>
+      <c r="G30">
+        <f>SUM(G1:G29)</f>
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M25">
-    <sortCondition ref="B2:B25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M31">
+    <sortCondition ref="F2:F31"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{709473F6-1375-BD4C-A983-0986AC61747F}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{812F5980-7885-044F-B042-8D55338D143B}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{267CD3C8-0590-B140-B13A-12B731D40E78}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{A5075EDF-56A4-874F-88B0-9C291BEF33AA}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{19302D87-D3E7-4B46-B09C-D325A6DEF809}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{AA4385EF-6C1D-E54D-9764-0214B803A524}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{912135EF-CE1F-6147-AB47-C5B0FFF5BFB8}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{8C5419FF-474C-9048-8338-1DCB8E251930}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{C2639246-CD1E-6D42-9392-78D3066324B1}"/>
-    <hyperlink ref="B12" r:id="rId10" xr:uid="{9A87168C-F69D-C947-91A1-460DE6138018}"/>
-    <hyperlink ref="B28" r:id="rId11" xr:uid="{6DBBBCA3-7F0A-C84C-B6DE-2C7D4322BEFC}"/>
-    <hyperlink ref="B29" r:id="rId12" xr:uid="{D61AECDC-198A-4B43-80D6-B0ACC67CC12A}"/>
-    <hyperlink ref="B27" r:id="rId13" xr:uid="{99E917C7-5AA1-2349-974F-93566ACB22B1}"/>
-    <hyperlink ref="B26" r:id="rId14" xr:uid="{06C4E1ED-07CE-F44D-B9CD-13C4AC97D3A5}"/>
-    <hyperlink ref="B25" r:id="rId15" xr:uid="{A2C08FBB-E2F8-DD4B-A55F-45384A52C0FF}"/>
-    <hyperlink ref="B24" r:id="rId16" xr:uid="{BDDB19D8-5882-F749-BEAD-C04C512AFD80}"/>
-    <hyperlink ref="B23" r:id="rId17" xr:uid="{1AD27A63-B341-EF42-A3C2-39F217B439EC}"/>
-    <hyperlink ref="B22" r:id="rId18" xr:uid="{D7508D9D-CC69-A24E-8922-E6A8D759CC2B}"/>
-    <hyperlink ref="B21" r:id="rId19" xr:uid="{28C843C1-7190-8A47-AB78-0B31CC44F55B}"/>
-    <hyperlink ref="B20" r:id="rId20" xr:uid="{6C46ABDB-E962-AC47-A93A-A022D0BB70CF}"/>
+    <hyperlink ref="B21" r:id="rId1" xr:uid="{709473F6-1375-BD4C-A983-0986AC61747F}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{812F5980-7885-044F-B042-8D55338D143B}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{267CD3C8-0590-B140-B13A-12B731D40E78}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{A5075EDF-56A4-874F-88B0-9C291BEF33AA}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{19302D87-D3E7-4B46-B09C-D325A6DEF809}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{AA4385EF-6C1D-E54D-9764-0214B803A524}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{912135EF-CE1F-6147-AB47-C5B0FFF5BFB8}"/>
+    <hyperlink ref="B8" r:id="rId8" xr:uid="{8C5419FF-474C-9048-8338-1DCB8E251930}"/>
+    <hyperlink ref="B9" r:id="rId9" xr:uid="{C2639246-CD1E-6D42-9392-78D3066324B1}"/>
+    <hyperlink ref="B10" r:id="rId10" xr:uid="{9A87168C-F69D-C947-91A1-460DE6138018}"/>
+    <hyperlink ref="B29" r:id="rId11" xr:uid="{6DBBBCA3-7F0A-C84C-B6DE-2C7D4322BEFC}"/>
+    <hyperlink ref="B18" r:id="rId12" xr:uid="{D61AECDC-198A-4B43-80D6-B0ACC67CC12A}"/>
+    <hyperlink ref="B17" r:id="rId13" xr:uid="{99E917C7-5AA1-2349-974F-93566ACB22B1}"/>
+    <hyperlink ref="B28" r:id="rId14" xr:uid="{06C4E1ED-07CE-F44D-B9CD-13C4AC97D3A5}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{A2C08FBB-E2F8-DD4B-A55F-45384A52C0FF}"/>
+    <hyperlink ref="B27" r:id="rId16" xr:uid="{BDDB19D8-5882-F749-BEAD-C04C512AFD80}"/>
+    <hyperlink ref="B20" r:id="rId17" xr:uid="{1AD27A63-B341-EF42-A3C2-39F217B439EC}"/>
+    <hyperlink ref="B26" r:id="rId18" xr:uid="{D7508D9D-CC69-A24E-8922-E6A8D759CC2B}"/>
+    <hyperlink ref="B15" r:id="rId19" xr:uid="{28C843C1-7190-8A47-AB78-0B31CC44F55B}"/>
+    <hyperlink ref="B14" r:id="rId20" xr:uid="{6C46ABDB-E962-AC47-A93A-A022D0BB70CF}"/>
     <hyperlink ref="B19" r:id="rId21" xr:uid="{16321BB2-C52E-3141-B06E-3FF9945386AC}"/>
-    <hyperlink ref="B18" r:id="rId22" xr:uid="{E001E506-3166-3744-BDBB-43BDB9805B04}"/>
-    <hyperlink ref="B17" r:id="rId23" xr:uid="{343F91EB-7D03-9646-ABC6-776626025481}"/>
-    <hyperlink ref="B15" r:id="rId24" xr:uid="{970C7B60-20C3-3F4A-A0FD-A2AD62C3788C}"/>
-    <hyperlink ref="B16" r:id="rId25" xr:uid="{1BE411CC-E2A1-7F46-8664-9360638606AF}"/>
-    <hyperlink ref="B3" r:id="rId26" xr:uid="{C7F4C10C-B294-B841-BF9A-424D2BFBD47F}"/>
-    <hyperlink ref="B13" r:id="rId27" xr:uid="{D1C0C26A-7E53-374E-93A7-46415D48AB5D}"/>
+    <hyperlink ref="B13" r:id="rId22" xr:uid="{E001E506-3166-3744-BDBB-43BDB9805B04}"/>
+    <hyperlink ref="B25" r:id="rId23" xr:uid="{343F91EB-7D03-9646-ABC6-776626025481}"/>
+    <hyperlink ref="B12" r:id="rId24" xr:uid="{970C7B60-20C3-3F4A-A0FD-A2AD62C3788C}"/>
+    <hyperlink ref="B24" r:id="rId25" xr:uid="{1BE411CC-E2A1-7F46-8664-9360638606AF}"/>
+    <hyperlink ref="B22" r:id="rId26" xr:uid="{C7F4C10C-B294-B841-BF9A-424D2BFBD47F}"/>
+    <hyperlink ref="B11" r:id="rId27" xr:uid="{D1C0C26A-7E53-374E-93A7-46415D48AB5D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
